--- a/odkazy_zdroj.xlsx
+++ b/odkazy_zdroj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terka/Desktop/ukoly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C620A4-7F7A-D94D-80A5-0C6B863E2E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7FDDAA-DA22-6B4E-AC46-C2A0B24FCCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{B4F80C57-CAD2-D74B-9B2C-4258B88967EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>url</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>https://www.obectemelin.cz/seniori/urad/uredni-deska/</t>
+  </si>
+  <si>
+    <t>https://www.mesto-milovice.cz/uredni-deska/2</t>
+  </si>
+  <si>
+    <t>https://www.hornizivotice.cz/uredni-deska/2</t>
+  </si>
+  <si>
+    <t>https://www.mubruntal.cz/uredni-deska/2</t>
+  </si>
+  <si>
+    <t>https://www.obec-krasikov.cz</t>
+  </si>
+  <si>
+    <t>https://www.hodonin.eu/uredni-deska/2</t>
   </si>
 </sst>
 </file>
@@ -440,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFB93AE-33C6-D446-B014-3D55995B04A2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,7 +483,22 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -478,10 +508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E908BE3-F4B6-E943-9802-B761716750D9}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,6 +546,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/odkazy_zdroj.xlsx
+++ b/odkazy_zdroj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terka/Desktop/ukoly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7FDDAA-DA22-6B4E-AC46-C2A0B24FCCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B126E994-B7C3-044A-BB47-F4D6D27055DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{B4F80C57-CAD2-D74B-9B2C-4258B88967EF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>url</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>https://www.hodonin.eu/uredni-deska/2</t>
+  </si>
+  <si>
+    <t>https://www.dolnibenesov.cz/mestsky-urad/uredni-deska/a-53/</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFB93AE-33C6-D446-B014-3D55995B04A2}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,6 +504,41 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -511,7 +549,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
